--- a/biology/Botanique/Cantharellales/Cantharellales.xlsx
+++ b/biology/Botanique/Cantharellales/Cantharellales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Cantharellales est un ordre de champignons basidiomycètes. Dans cet ordre que l'on rencontre en Asie, Europe et en Amérique du Nord se trouvent les chanterelles, les pieds de moutons et les clavaires. Si au départ Linné y classait les champignons infundibuliformes ou cornucopiés, (en forme d'entonnoir ou de corne d'abondance), les études récentes montrent que de nombreuses autres morphologies résupinées ou clavées, (de forme étalée ou en forme de massue) sont phylogénétiquement proches des chanterelles. Préfigurent clairement les Agaricomycetideae par leurs plis hyméniaux qui annoncent les lamelles de ces derniers.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre comprend non seulement les chanterelles Cantharellaceae, mais aussi quelques-uns des champignons à aiguillons (les Hydnaceae), certains champignons clavarioides (Aphelariaceae et Clavulinaceae) et les champignons corticioïdes (Botryobasidiaceae). Les espèces au sein de l'ordre sont diversement ectomycorhiziennes, saprotrophiques, associées à des orchidées ou agents pathogènes des plantes. Ceux qui présentent une importance économique comprennent les comestibles récoltés commercialement comme les espèces des genres Cantharellus, Craterellus et Hydnum ainsi que les agents pathogènes des cultures dans les genres Ceratobasidium et Thanatephorus comme les  Rhizoctonia.
 </t>
@@ -544,21 +558,95 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les origines
-L'ordre des Cantharellales fut initialement proposé en 1926 par le mycologue allemand Ernst Albert Gäumann[1] pour accueillir au sein de l'embranchement des Basidiomycota les espèces de champignons à basides « stichiques » (basides dont les noyaux sont disposées longitudinalement).
+          <t>Les origines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Cantharellales fut initialement proposé en 1926 par le mycologue allemand Ernst Albert Gäumann pour accueillir au sein de l'embranchement des Basidiomycota les espèces de champignons à basides « stichiques » (basides dont les noyaux sont disposées longitudinalement).
 Sur cette base, l'ordre des Cantharellales comprenait trois familles: les familles des Cantharellaceae, y compris les Hydnaceae, des Clavulinaceae, et des Exobasidiaceae. Ce dernier groupe est maintenant transféré dans les Exobasidiales.
-En 1995, l'ordre a été modifié, sur la base d'une recherche micromorphologique pour y inclure non seulement les Cantharellaceae, mais aussi les Scutigeraceae, les Sparassidaceae et les Typhulaceae[2].
-Situation actuelle
-La recherche moléculaire et l'analyse cladistique des séquences d'ADN ont redéfini l'ordre des Cantharellales[3].
+En 1995, l'ordre a été modifié, sur la base d'une recherche micromorphologique pour y inclure non seulement les Cantharellaceae, mais aussi les Scutigeraceae, les Sparassidaceae et les Typhulaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Situation actuelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La recherche moléculaire et l'analyse cladistique des séquences d'ADN ont redéfini l'ordre des Cantharellales.
 Avec la famille des Cantharellaceae (girolles et leurs apparentés, y compris les Craterellaceae), l'ordre se compose actuellement de champignons morphologiquement diversifiés par les sporocarpes dans:
 la famille des Aphelariaceae (champignons clavarioïdes des régions subtropicales, Java Nouvelle-Zélande),
 la famille des Botryobasidiaceae (champignons corticioïdes),
 la famille des Ceratobasidiaceae (heterobasidiomycètes),
 la famille des Clavulinaceae (champignons clavarioïdes),
 la famille des Hydnaceae (champignons à « piquots »),
-la famille des Tulasnellaceae (heterobasidiomycètes).
-Phylogramme de l'ordre des Cantharellales
-En 2006, une étude importante développe le clades des cantharelloïdes: les résultats sont en accord avec les études antérieures et place les genres Cantharellus, Craterellus, Hydnum, Clavulina, Membranomyces, Multiclavula, Sistotrema, Botryobasidium ainsi que la famille des Ceratobasidiaceae dans ce clade.  Les analyses phylogénétiques démontrent la monophylie de tous les genres, sauf Sistotrema, qui était très polyphyletique. La relation entre le genre Tulasnella et les membres du clade cantharelloïde n'est pas encore précise, mais il existe des preuves cumulative qu'ils sont probablement groupes frères[3].
+la famille des Tulasnellaceae (heterobasidiomycètes).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogramme de l'ordre des Cantharellales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 2006, une étude importante développe le clades des cantharelloïdes: les résultats sont en accord avec les études antérieures et place les genres Cantharellus, Craterellus, Hydnum, Clavulina, Membranomyces, Multiclavula, Sistotrema, Botryobasidium ainsi que la famille des Ceratobasidiaceae dans ce clade.  Les analyses phylogénétiques démontrent la monophylie de tous les genres, sauf Sistotrema, qui était très polyphyletique. La relation entre le genre Tulasnella et les membres du clade cantharelloïde n'est pas encore précise, mais il existe des preuves cumulative qu'ils sont probablement groupes frères.
 Dacrymyces
 Agaricomycetes
 Auriculariales
@@ -583,50 +671,349 @@
 Sistotrema I
 ...
 Boletales
-Agaricales
-Renvoi de quelques familles dans d'autres ordres
-Les études de 2006 vont également modifier le placement dans d'autres ordres[3],[4].
+Agaricales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Renvoi de quelques familles dans d'autres ordres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les études de 2006 vont également modifier le placement dans d'autres ordres,.
 Les familles des Clavariaceae, des Physalacriaceae, des Pterulaceae et des Typhulaceae, précédemment incluses dans l'ordre, sont maintenant placées dans l'ordre des Agaricales.
 La famille des Clavariadelphaceae est maintenant placée dans l'ordre des Gomphales.
 La famille des Sparassidaceae est maintenant placée dans l'ordre des Polyporales.
 La famille des Scutigeraceae est remplacée par la famille des Albatrellaceae dans l'ordre des Russulales.
-Selon les références de 2008, l'ordre contient 7 familles, 38 genres et 544 espèces[2].
-Classification linéenne
-Cet ordre est constitué des familles et genres suivants[2].
-Famille des Aphelariaceae
-genre Aphelaria
+Selon les références de 2008, l'ordre contient 7 familles, 38 genres et 544 espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Classification linéenne</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre est constitué des familles et genres suivants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Classification linéenne</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Famille des Aphelariaceae</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>genre Aphelaria
 genre Phaeoaphelaria
-genre Tumidapexus
-Famille des Botryobasidiaceae
-genre Allescheriella
+genre Tumidapexus</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Classification linéenne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Famille des Botryobasidiaceae</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">genre Allescheriella
 genre Alysidium
 genre Botryobasidium
 genre Botryohypochnus
 genre Haplotrichum
 genre Suillosporium
 File:2007-07-14 Cantharellus cibarius2.jpg
-Famille des Cantharellaceae
-genre Cantharellus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Classification linéenne</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Famille des Cantharellaceae</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>genre Cantharellus
 genre Craterellus
 genre Goossensia'
 genre Parastereopsis
-genre Pseudocraterellus
-Famille des Ceratobasidiaceae
-genre Cejpomyces
+genre Pseudocraterellus</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Classification linéenne</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Famille des Ceratobasidiaceae</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>genre Cejpomyces
 genre Ceratobasidium
 genre Ceratoporia
 genre Ceratorhiza
 genre Moniliopsis
 genre Rhizoctonia
 genre Scotomyces
-genre Thanatephorus
-Famille des Clavulinaceae
-genre Clavulicium
+genre Thanatephorus</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Classification linéenne</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Famille des Clavulinaceae</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>genre Clavulicium
 genre Clavulina
 genre Membranomyces
-genre Multiclavula
-Famille des Hydnaceae
-genre Burgoa
+genre Multiclavula</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Classification linéenne</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Famille des Hydnaceae</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>genre Burgoa
 genre Corallofungus
 genre Cystidiodendron
 genre Gloeomucro
@@ -635,14 +1022,90 @@
 genre Osteomorpha
 genre Paullicorticium
 genre Repetobasidiellum
-genre Sistotrema
-Famille des Tulasnellaceae
-genre Epulorhiza
+genre Sistotrema</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Classification linéenne</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Famille des Tulasnellaceae</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>genre Epulorhiza
 genre Pseudotulasnella
-genre Tulasnella
-Genres incertae sedis
-L'ordre des cantharellales est aussi constitué de genres qui n'ont pas encore de position taxinomique déterminée[2].
-Burgella Diederich &amp; Lawrey 2007[5]
+genre Tulasnella</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cantharellales</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cantharellales</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Classification linéenne</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Genres incertae sedis</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des cantharellales est aussi constitué de genres qui n'ont pas encore de position taxinomique déterminée.
+Burgella Diederich &amp; Lawrey 2007
 Minimedusa Weresub &amp; P.M. LeClair 1971
 Odontiochaete Rick 1940
 Radulochaete Rick 1940
